--- a/output/PrescriptionDispenseLists/list-pdl-1.xlsx
+++ b/output/PrescriptionDispenseLists/list-pdl-1.xlsx
@@ -151,7 +151,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-lst-07:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-lst-02:The list shall at least have an authoring related person or a source, but not both {(extension('http://hl7.org.au/fhir/StructureDefinition/author-related-person').exists() and source.exists()).not()}inv-dh-lst-03:If and only if the source is a practitioner, the authoring role shall be provided {source.resolve() is Practitioner implies extension('http://hl7.org.au/fhir/StructureDefinition/author-role').exists()}inv-dh-lst-05:If present, an authoring related person shall at least have a reference or an identifier with at least a system and a value {authorRelatedPerson.exists() implies (authorRelatedPerson.reference.exists() or authorRelatedPerson.identifier.where(system.count() + value.count() &gt;1).exists())}inv-dh-lst-01:The list shall at least have one entry or an empty reason, but not both {(entry.exists() and emptyreason.exists()).not()}inv-dh-lst-06:If present, a source shall at least have a reference or an identifier with at least a system and a value {source.reference.exists() or source.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-lst-04:If present, an authoring role shall at least have a reference or an identifier with at least a system and a value {authorRole.exists() implies (authorRole.reference.exists() or authorRole.identifier.where(system.count() + value.count() &gt;1).exists())}inv-dh-lst-11:If this list is a Dispense List the entry item shall not be a prescription {code.coding.where(code='100.32014').exists().not() and entry.item.reference.resolve() is MedicationRequest}inv-dh-lst-12:If this is list is a Prescription List the entry item shall not be a dispense record {code.coding.where(code='57828-6').exists().not() and entry.item.reference.resolve() is MedicationDispense}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-lst-07:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-lst-02:The list shall at least have an authoring related person or a source, but not both {(extension($this='http://hl7.org.au/fhir/StructureDefinition/author-related-person').exists() and source.exists()).not()}inv-dh-lst-03:If and only if the source is a practitioner, the authoring role shall be provided {source.resolve() is Practitioner implies extension($this='http://hl7.org.au/fhir/StructureDefinition/author-role').exists()}inv-dh-lst-05:If present, an authoring related person shall at least have a reference or an identifier with at least a system and a value {authorRelatedPerson.exists() implies (authorRelatedPerson.reference.exists() or authorRelatedPerson.identifier.where(system.count() + value.count() &gt;1).exists())}inv-dh-lst-01:The list shall at least have one entry or an empty reason, but not both {(entry.exists() and emptyreason.exists()).not()}inv-dh-lst-06:If present, a source shall at least have a reference or an identifier with at least a system and a value {source.exists() implies (source.reference.exists() or source.identifier.where(system.count() + value.count() &gt;1).exists())}inv-dh-lst-04:If present, an authoring role shall at least have a reference or an identifier with at least a system and a value {authorRole.exists() implies (authorRole.reference.exists() or authorRole.identifier.where(system.count() + value.count() &gt;1).exists())}inv-dh-lst-11:If this list is a Dispense List the entry item shall not be a prescription {entry.item.reference.resolve() is MedicationRequest implies code.coding.code!='100.32014'}inv-dh-lst-12:If this is list is a Prescription List the entry item shall not be a dispense record {entry.item.reference.resolve() is MedicationDispense implies code.coding.code!='57828-6'}</t>
   </si>
   <si>
     <t>Act[classCode&lt;ORG,moodCode=EVN]</t>
@@ -201,7 +201,7 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-dh-lst-08:One profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-pdl-1' {profile('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-pdl-1').exists()}
+    <t xml:space="preserve">inv-dh-lst-08:One profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-pdl-1' {profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-pdl-1').exists()}
 </t>
   </si>
   <si>
@@ -511,7 +511,7 @@
     <t>Practitioner role that authored the list</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-dh-lst-09:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}
+    <t xml:space="preserve">inv-dh-lst-09:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {resolve().conformsTo($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}
 </t>
   </si>
   <si>
@@ -578,7 +578,7 @@
     <t>Reference to related person that authored the resource and takes responsibility for its content.</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-dh-lst-10:A related person shall conform to RelatedPerson with Mandatory Identifier {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ident-1')}
+    <t xml:space="preserve">inv-dh-lst-10:A related person shall conform to RelatedPerson with Mandatory Identifier {resolve().conformsTo($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ident-1')}
 </t>
   </si>
   <si>

--- a/output/PrescriptionDispenseLists/list-pdl-1.xlsx
+++ b/output/PrescriptionDispenseLists/list-pdl-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$47</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="322">
   <si>
     <t>Path</t>
   </si>
@@ -301,7 +301,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/STU3/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/STU3/).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -515,60 +515,6 @@
 </t>
   </si>
   <si>
-    <t>List.extension.id</t>
-  </si>
-  <si>
-    <t>List.extension.extension</t>
-  </si>
-  <si>
-    <t>List.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/author-role</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>List.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(PractitionerRole)
-</t>
-  </si>
-  <si>
     <t>authorRelatedPerson</t>
   </si>
   <si>
@@ -580,16 +526,6 @@
   <si>
     <t xml:space="preserve">inv-dh-lst-10:A related person shall conform to RelatedPerson with Mandatory Identifier {resolve().conformsTo($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ident-1')}
 </t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/author-related-person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Who authored the record</t>
   </si>
   <si>
     <t>List.modifierExtension</t>
@@ -1238,7 +1174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK57"/>
+  <dimension ref="A1:AK47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3279,11 +3215,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>41</v>
       </c>
@@ -3295,7 +3233,7 @@
         <v>48</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -3304,13 +3242,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3361,22 +3299,22 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -3384,7 +3322,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3401,7 +3339,7 @@
         <v>41</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>41</v>
@@ -3410,10 +3348,10 @@
         <v>69</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>72</v>
@@ -3454,19 +3392,19 @@
         <v>41</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3481,7 +3419,7 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>41</v>
@@ -3489,7 +3427,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3497,10 +3435,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>
@@ -3512,24 +3450,22 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>41</v>
@@ -3571,13 +3507,13 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
@@ -3586,15 +3522,15 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3602,37 +3538,39 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>41</v>
@@ -3650,32 +3588,34 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>172</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>48</v>
@@ -3687,19 +3627,17 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>41</v>
       </c>
@@ -3714,28 +3652,32 @@
         <v>41</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>41</v>
@@ -3753,13 +3695,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -3777,10 +3719,10 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>48</v>
@@ -3792,19 +3734,17 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>41</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>41</v>
       </c>
@@ -3822,19 +3762,21 @@
         <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -3846,7 +3788,7 @@
         <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>41</v>
@@ -3882,30 +3824,30 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3913,31 +3855,35 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -3961,13 +3907,11 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -3985,7 +3929,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -4000,49 +3944,51 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>41</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4078,25 +4024,25 @@
         <v>41</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
@@ -4105,15 +4051,15 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4121,7 +4067,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>48</v>
@@ -4136,24 +4082,22 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>41</v>
@@ -4195,10 +4139,10 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>48</v>
@@ -4210,15 +4154,15 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>41</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4226,31 +4170,35 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4286,17 +4234,19 @@
         <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AB29" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4311,49 +4261,51 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>41</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4401,7 +4353,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4416,49 +4368,51 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>41</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
       </c>
@@ -4482,13 +4436,13 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -4506,13 +4460,13 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -4521,15 +4475,15 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>140</v>
+        <v>246</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4543,7 +4497,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -4552,13 +4506,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4609,7 +4563,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4624,15 +4578,15 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4640,31 +4594,31 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4672,7 +4626,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>41</v>
@@ -4690,13 +4644,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -4714,30 +4668,30 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>201</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4745,7 +4699,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>48</v>
@@ -4754,32 +4708,28 @@
         <v>41</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>41</v>
@@ -4797,13 +4747,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -4821,10 +4771,10 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>48</v>
@@ -4836,15 +4786,15 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>211</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4855,30 +4805,28 @@
         <v>39</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
@@ -4890,7 +4838,7 @@
         <v>41</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>41</v>
@@ -4914,25 +4862,23 @@
         <v>41</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
@@ -4941,51 +4887,49 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
       </c>
@@ -5009,11 +4953,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5031,66 +4977,64 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>226</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
@@ -5138,13 +5082,13 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5153,15 +5097,15 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>234</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5184,16 +5128,20 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
       </c>
@@ -5217,13 +5165,11 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
@@ -5241,7 +5187,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5256,15 +5202,15 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5272,37 +5218,37 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I39" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
@@ -5348,7 +5294,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5357,25 +5303,25 @@
         <v>48</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>248</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5385,28 +5331,28 @@
         <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5455,7 +5401,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5470,15 +5416,15 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>257</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5486,13 +5432,13 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -5501,20 +5447,16 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
       </c>
@@ -5538,13 +5480,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -5562,10 +5504,10 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>48</v>
@@ -5577,15 +5519,15 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5596,10 +5538,10 @@
         <v>39</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -5608,13 +5550,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>268</v>
+        <v>62</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>269</v>
+        <v>63</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
+        <v>64</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5665,13 +5607,13 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>41</v>
@@ -5680,19 +5622,19 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>271</v>
+        <v>66</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5702,7 +5644,7 @@
         <v>40</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -5711,16 +5653,16 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>273</v>
+        <v>69</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>274</v>
+        <v>70</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>275</v>
+        <v>71</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5758,19 +5700,19 @@
         <v>41</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5779,13 +5721,13 @@
         <v>40</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>279</v>
+        <v>66</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
@@ -5793,7 +5735,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5801,7 +5743,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>48</v>
@@ -5813,18 +5755,20 @@
         <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>62</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -5873,7 +5817,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -5882,13 +5826,13 @@
         <v>48</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -5896,7 +5840,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5907,7 +5851,7 @@
         <v>39</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>41</v>
@@ -5916,18 +5860,20 @@
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>142</v>
+        <v>305</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -5964,23 +5910,25 @@
         <v>41</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB45" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
@@ -5989,7 +5937,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
@@ -5997,11 +5945,9 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>41</v>
       </c>
@@ -6019,18 +5965,20 @@
         <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -6079,64 +6027,66 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
       </c>
@@ -6160,13 +6110,11 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -6184,1079 +6132,29 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>321</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="X48" s="2"/>
-      <c r="Y48" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="X57" s="2"/>
-      <c r="Y57" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AK57" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK57">
+  <autoFilter ref="A1:AK47">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7266,7 +6164,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI46">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
